--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1705953.564721431</v>
+        <v>-1708759.510776621</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>51.08004582765273</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>269.3487952437906</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>14.05889084081613</v>
       </c>
       <c r="H2" t="n">
-        <v>326.7362573623985</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>162.5224906587257</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.73533428546374</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.6759134952029</v>
       </c>
       <c r="T2" t="n">
-        <v>174.1324689654617</v>
+        <v>217.6509107473003</v>
       </c>
       <c r="U2" t="n">
         <v>251.246145173891</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>270.4160523387081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.6780005204371</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>42.61032324041077</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780739</v>
+        <v>58.83742364780737</v>
       </c>
       <c r="S3" t="n">
         <v>159.3214913575833</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4822295952212</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8975980913187</v>
       </c>
       <c r="V3" t="n">
-        <v>77.9286807946141</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>27.7010824500782</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593283</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.2060744799339</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.293107035759</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>160.4209352388711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>250.4925585406311</v>
       </c>
       <c r="V5" t="n">
-        <v>146.9471766237586</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385458</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>122.8779392327891</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>112.4773236358128</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>35.46527312190283</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>113.7237131066883</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.501801473176</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>122.9239131432198</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6942204073858</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.1594216201948</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.9590012402371</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.4837053550539</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>194.4027115485082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9399954524559</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.3764982651491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>100.5858322992699</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545296</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1186.329034009371</v>
+        <v>995.2088250553529</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.329034009371</v>
+        <v>995.2088250553529</v>
       </c>
       <c r="D2" t="n">
-        <v>828.0633354026203</v>
+        <v>636.9431264486025</v>
       </c>
       <c r="E2" t="n">
-        <v>828.0633354026203</v>
+        <v>636.9431264486025</v>
       </c>
       <c r="F2" t="n">
-        <v>555.9938452573772</v>
+        <v>225.9572216589949</v>
       </c>
       <c r="G2" t="n">
-        <v>541.792945418169</v>
+        <v>211.7563218197866</v>
       </c>
       <c r="H2" t="n">
         <v>211.7563218197866</v>
       </c>
       <c r="I2" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="J2" t="n">
-        <v>140.2766257379402</v>
+        <v>140.2766257379401</v>
       </c>
       <c r="K2" t="n">
-        <v>399.931373433274</v>
+        <v>399.9313734332741</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349398</v>
+        <v>774.33267573494</v>
       </c>
       <c r="M2" t="n">
         <v>1207.532809426326</v>
@@ -4346,34 +4346,34 @@
         <v>1989.783956408646</v>
       </c>
       <c r="P2" t="n">
-        <v>2256.522051210346</v>
+        <v>2256.522051210347</v>
       </c>
       <c r="Q2" t="n">
-        <v>2379.609492063791</v>
+        <v>2379.609492063792</v>
       </c>
       <c r="R2" t="n">
-        <v>2379.609492063791</v>
+        <v>2307.149558442111</v>
       </c>
       <c r="S2" t="n">
-        <v>2379.609492063791</v>
+        <v>2124.648635719684</v>
       </c>
       <c r="T2" t="n">
-        <v>2203.718109270395</v>
+        <v>1904.799230924431</v>
       </c>
       <c r="U2" t="n">
-        <v>1949.934124246262</v>
+        <v>1651.015245900298</v>
       </c>
       <c r="V2" t="n">
-        <v>1949.934124246262</v>
+        <v>1319.952358556728</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.934124246262</v>
+        <v>1319.952358556728</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.468365985183</v>
+        <v>1046.804830941871</v>
       </c>
       <c r="Y2" t="n">
-        <v>1186.329034009371</v>
+        <v>1046.804830941871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.8102281465045</v>
+        <v>857.850958692374</v>
       </c>
       <c r="C3" t="n">
-        <v>640.3571988653775</v>
+        <v>683.397929411247</v>
       </c>
       <c r="D3" t="n">
-        <v>491.4227892041262</v>
+        <v>534.4635197499957</v>
       </c>
       <c r="E3" t="n">
-        <v>332.1853341986707</v>
+        <v>375.2260647445402</v>
       </c>
       <c r="F3" t="n">
-        <v>185.6507762255557</v>
+        <v>228.6915067714252</v>
       </c>
       <c r="G3" t="n">
-        <v>47.59218984127581</v>
+        <v>90.6329203871453</v>
       </c>
       <c r="H3" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="I3" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="J3" t="n">
-        <v>109.1010252263746</v>
+        <v>109.1010252263747</v>
       </c>
       <c r="K3" t="n">
-        <v>340.8502649974765</v>
+        <v>340.8502649974766</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8701137890719</v>
+        <v>713.8701137890721</v>
       </c>
       <c r="M3" t="n">
-        <v>996.2618574529127</v>
+        <v>1201.145904759556</v>
       </c>
       <c r="N3" t="n">
-        <v>1512.141402063475</v>
+        <v>1717.025449370118</v>
       </c>
       <c r="O3" t="n">
-        <v>1917.654721881349</v>
+        <v>2071.152369901561</v>
       </c>
       <c r="P3" t="n">
-        <v>2226.11184404358</v>
+        <v>2379.609492063792</v>
       </c>
       <c r="Q3" t="n">
-        <v>2379.609492063791</v>
+        <v>2379.609492063792</v>
       </c>
       <c r="R3" t="n">
-        <v>2320.177751005399</v>
+        <v>2320.1777510054</v>
       </c>
       <c r="S3" t="n">
-        <v>2159.246951654305</v>
+        <v>2159.246951654306</v>
       </c>
       <c r="T3" t="n">
-        <v>1959.769952063173</v>
+        <v>2159.246951654306</v>
       </c>
       <c r="U3" t="n">
-        <v>1731.59056005174</v>
+        <v>1931.067559642873</v>
       </c>
       <c r="V3" t="n">
-        <v>1652.874720865261</v>
+        <v>1695.91545141113</v>
       </c>
       <c r="W3" t="n">
-        <v>1398.637364137059</v>
+        <v>1441.678094682929</v>
       </c>
       <c r="X3" t="n">
-        <v>1190.785863931526</v>
+        <v>1233.826594477396</v>
       </c>
       <c r="Y3" t="n">
-        <v>983.0255651665725</v>
+        <v>1026.066295712442</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
       <c r="C4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
       <c r="D4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
       <c r="E4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
       <c r="F4" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="G4" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="H4" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="I4" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="J4" t="n">
-        <v>47.59218984127581</v>
+        <v>47.59218984127583</v>
       </c>
       <c r="K4" t="n">
-        <v>89.72043354165896</v>
+        <v>89.72043354165903</v>
       </c>
       <c r="L4" t="n">
-        <v>199.1565158344541</v>
+        <v>199.1565158344542</v>
       </c>
       <c r="M4" t="n">
-        <v>324.9306436357426</v>
+        <v>324.9306436357428</v>
       </c>
       <c r="N4" t="n">
-        <v>453.1487602187678</v>
+        <v>453.148760218768</v>
       </c>
       <c r="O4" t="n">
-        <v>555.5626480722349</v>
+        <v>555.5626480722351</v>
       </c>
       <c r="P4" t="n">
-        <v>619.6747394478384</v>
+        <v>619.6747394478386</v>
       </c>
       <c r="Q4" t="n">
-        <v>579.8347320176032</v>
+        <v>619.6747394478386</v>
       </c>
       <c r="R4" t="n">
-        <v>426.0912224419124</v>
+        <v>619.6747394478386</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6335385674082</v>
+        <v>619.6747394478386</v>
       </c>
       <c r="T4" t="n">
-        <v>209.6335385674082</v>
+        <v>619.6747394478386</v>
       </c>
       <c r="U4" t="n">
-        <v>209.6335385674082</v>
+        <v>619.6747394478386</v>
       </c>
       <c r="V4" t="n">
-        <v>47.59218984127581</v>
+        <v>364.9902512419518</v>
       </c>
       <c r="W4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
       <c r="X4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.59218984127581</v>
+        <v>75.57308120499118</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.508284627941</v>
+        <v>475.2800690807791</v>
       </c>
       <c r="C5" t="n">
-        <v>833.5457676875296</v>
+        <v>475.2800690807791</v>
       </c>
       <c r="D5" t="n">
         <v>475.2800690807791</v>
@@ -4571,16 +4571,16 @@
         <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>1196.167056847984</v>
+        <v>782.6824544430381</v>
       </c>
       <c r="M5" t="n">
-        <v>1827.884867831296</v>
+        <v>1146.3529036269</v>
       </c>
       <c r="N5" t="n">
-        <v>2036.260017058768</v>
+        <v>1340.687116518882</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375727</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
         <v>2317.163367625254</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.539466667866</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2093.847763413017</v>
+        <v>2309.316541995477</v>
       </c>
       <c r="V5" t="n">
-        <v>1945.416271873867</v>
+        <v>1978.253654651907</v>
       </c>
       <c r="W5" t="n">
-        <v>1592.647616603753</v>
+        <v>1625.484999381792</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.647616603753</v>
+        <v>1252.019241120713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.508284627941</v>
+        <v>861.8799091449009</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.7636139849254</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>744.3105847037984</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>595.3761750425472</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>436.1387200370916</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>289.6041620639766</v>
+        <v>264.2565034647824</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>126.8151058240044</v>
       </c>
       <c r="H6" t="n">
-        <v>51.2467865680031</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4650,19 +4650,19 @@
         <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1637.874966375866</v>
+        <v>1270.743024525441</v>
       </c>
       <c r="N6" t="n">
-        <v>1836.53170802853</v>
+        <v>1904.922008304479</v>
       </c>
       <c r="O6" t="n">
-        <v>2385.967716781253</v>
+        <v>2222.936244812388</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4671,25 +4671,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2417.108298264171</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2220.119002424259</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1991.980214935424</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1756.828106703682</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1502.59074997548</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1294.739249769947</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1086.978951004993</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.7964277139027</v>
+        <v>869.5330031971081</v>
       </c>
       <c r="C7" t="n">
-        <v>164.8602447859958</v>
+        <v>700.5968202692012</v>
       </c>
       <c r="D7" t="n">
-        <v>164.8602447859958</v>
+        <v>550.4801808568654</v>
       </c>
       <c r="E7" t="n">
-        <v>164.8602447859958</v>
+        <v>402.5670872744723</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>255.677139776562</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>87.07029477194536</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4750,25 +4750,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>843.7411832797532</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>843.7411832797532</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>554.5890068574329</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>554.5890068574329</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>554.5890068574329</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5890068574329</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.7964277139027</v>
+        <v>1051.181468027348</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.329830759459</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.365833927799</v>
+        <v>2447.466890918652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1230.929670823581</v>
+        <v>2057.32755894284</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,25 +4884,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>520.4109910936369</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251085</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>580.1230396189745</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="C10" t="n">
-        <v>455.9574707874393</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384192</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472316</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>761.7715044492143</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="Y10" t="n">
-        <v>761.7715044492143</v>
+        <v>157.1019332386098</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.637687073287</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2416.701466165879</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.846631820783</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2014.245166843724</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1725.169940187922</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1470.485451982035</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.068281945074</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>953.0787310470569</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.2861519035267</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,25 +5355,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6248,13 +6248,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,34 +6835,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,13 +7318,13 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,22 +7354,22 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>258.7514806119764</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>341.9568654520504</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.02915842250501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>178.7586225842971</v>
       </c>
       <c r="N5" t="n">
-        <v>14.18276397524238</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933067</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>160.1029533728773</v>
       </c>
       <c r="P6" t="n">
-        <v>45.39903322184418</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>331.6537958358279</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>137.5272504979208</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.7362573623985</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>63.19763131456207</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4330325613104</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2665182564294</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.6714930639232</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828199</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2885958948282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>91.71670808495693</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>8.456051398017564</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.41624546988459</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>41.54258064659072</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>44.83521572366135</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1298143.943119145</v>
+        <v>1298143.943119146</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1298143.943119145</v>
+        <v>1298143.943119146</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1298143.943119146</v>
+        <v>1298143.943119145</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.284536593</v>
+        <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497513.9407656174</v>
+        <v>497513.9407656176</v>
       </c>
       <c r="C3" t="n">
-        <v>273432.6815691277</v>
+        <v>273432.6815691275</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155652.6364853846</v>
+        <v>155652.6364853847</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955435</v>
+        <v>11757.20312955423</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178690.4677814936</v>
+        <v>178690.4677814935</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26430,34 +26430,34 @@
         <v>7507.368461719672</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719675</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719697</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.36846171969</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719678</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719667</v>
-      </c>
       <c r="L4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481318</v>
       </c>
       <c r="M4" t="n">
         <v>15498.22772481315</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76542.73383253254</v>
+        <v>76542.73383253257</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-651195.8578430505</v>
+        <v>-651555.9408587679</v>
       </c>
       <c r="C6" t="n">
-        <v>-434101.9875286896</v>
+        <v>-434101.9875286894</v>
       </c>
       <c r="D6" t="n">
         <v>-394580.380029973</v>
       </c>
       <c r="E6" t="n">
-        <v>-495043.3499566719</v>
+        <v>-495078.0878821075</v>
       </c>
       <c r="F6" t="n">
-        <v>12442.09166787413</v>
+        <v>12407.35374243844</v>
       </c>
       <c r="G6" t="n">
-        <v>12442.09166787413</v>
+        <v>12407.35374243844</v>
       </c>
       <c r="H6" t="n">
-        <v>12442.09166787411</v>
+        <v>12407.35374243837</v>
       </c>
       <c r="I6" t="n">
-        <v>12442.09166787406</v>
+        <v>12407.35374243841</v>
       </c>
       <c r="J6" t="n">
-        <v>-143210.5448175105</v>
+        <v>-143245.2827429464</v>
       </c>
       <c r="K6" t="n">
-        <v>684.8885383197485</v>
+        <v>650.1506128841571</v>
       </c>
       <c r="L6" t="n">
-        <v>-14933.79609271792</v>
+        <v>-14933.79609271788</v>
       </c>
       <c r="M6" t="n">
-        <v>-128113.3718280128</v>
+        <v>-128113.3718280129</v>
       </c>
       <c r="N6" t="n">
-        <v>4493.921900913963</v>
+        <v>4493.921900913949</v>
       </c>
       <c r="O6" t="n">
         <v>4493.921900913949</v>
       </c>
       <c r="P6" t="n">
-        <v>4493.921900913949</v>
+        <v>4493.921900913978</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203972</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368315</v>
+        <v>309.4068602368317</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159477</v>
+        <v>594.9023730159479</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368315</v>
+        <v>309.4068602368317</v>
       </c>
       <c r="C3" t="n">
-        <v>284.0692401012336</v>
+        <v>284.0692401012334</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159477</v>
+        <v>594.9023730159479</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409108</v>
+        <v>45.68245908409085</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159477</v>
+        <v>594.9023730159482</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409108</v>
+        <v>45.68245908409062</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159477</v>
+        <v>594.9023730159479</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409108</v>
+        <v>45.68245908409085</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.6759134952029</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.51844178183859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>99.31504833976089</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8079545549729</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>66.48301159802708</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>154.8719063548112</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>117.7199655728531</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4330325613104</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2665182564294</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.6714930639232</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.91234155828197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.4416073559328</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.2060744799339</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.293107035759</v>
       </c>
       <c r="T4" t="n">
         <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2885958948282</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27667,19 +27667,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.6622276816695774</v>
       </c>
       <c r="V5" t="n">
-        <v>180.8050818463763</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045278886</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>25.09418201320248</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>32.94372438711845</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>117.2468235473297</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27822,13 +27822,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>256.0073875717808</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.7361371828776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>44.32290795540798</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>1.24384667431892</v>
       </c>
       <c r="H2" t="n">
-        <v>12.73854475336864</v>
+        <v>12.73854475336865</v>
       </c>
       <c r="I2" t="n">
-        <v>47.9533989116802</v>
+        <v>47.95339891168022</v>
       </c>
       <c r="J2" t="n">
-        <v>105.5699316744755</v>
+        <v>105.5699316744756</v>
       </c>
       <c r="K2" t="n">
-        <v>158.2219613983954</v>
+        <v>158.2219613983955</v>
       </c>
       <c r="L2" t="n">
-        <v>196.2883340575831</v>
+        <v>196.2883340575832</v>
       </c>
       <c r="M2" t="n">
-        <v>218.4085923520022</v>
+        <v>218.4085923520023</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9426717154108</v>
+        <v>221.9426717154109</v>
       </c>
       <c r="O2" t="n">
-        <v>209.5741713476521</v>
+        <v>209.5741713476522</v>
       </c>
       <c r="P2" t="n">
-        <v>178.8667065754037</v>
+        <v>178.8667065754038</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.3214475513573</v>
+        <v>134.3214475513574</v>
       </c>
       <c r="R2" t="n">
-        <v>78.1337836556859</v>
+        <v>78.13378365568595</v>
       </c>
       <c r="S2" t="n">
-        <v>28.34415609104241</v>
+        <v>28.34415609104243</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831074</v>
+        <v>5.444938816831077</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551356</v>
+        <v>0.09950773394551361</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6655166427735622</v>
+        <v>0.6655166427735625</v>
       </c>
       <c r="H3" t="n">
-        <v>6.427489681523614</v>
+        <v>6.427489681523618</v>
       </c>
       <c r="I3" t="n">
-        <v>22.913621253388</v>
+        <v>22.91362125338801</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888291</v>
+        <v>62.87672807888295</v>
       </c>
       <c r="K3" t="n">
         <v>107.4663431447116</v>
       </c>
       <c r="L3" t="n">
-        <v>144.5017605285315</v>
+        <v>144.5017605285316</v>
       </c>
       <c r="M3" t="n">
         <v>168.6267388290732</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0897868413573</v>
+        <v>173.0897868413574</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3433391251641</v>
+        <v>158.3433391251642</v>
       </c>
       <c r="P3" t="n">
-        <v>127.0844894433129</v>
+        <v>127.084489443313</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.95261566351647</v>
+        <v>84.95261566351651</v>
       </c>
       <c r="R3" t="n">
-        <v>41.32041050483574</v>
+        <v>41.32041050483576</v>
       </c>
       <c r="S3" t="n">
-        <v>12.36167974625453</v>
+        <v>12.36167974625454</v>
       </c>
       <c r="T3" t="n">
-        <v>2.682499099600453</v>
+        <v>2.682499099600455</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615542</v>
+        <v>0.04378398965615544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5579467971483846</v>
+        <v>0.5579467971483849</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960654251010187</v>
+        <v>4.960654251010189</v>
       </c>
       <c r="I4" t="n">
-        <v>16.77898186333506</v>
+        <v>16.77898186333507</v>
       </c>
       <c r="J4" t="n">
-        <v>39.44683855839079</v>
+        <v>39.44683855839081</v>
       </c>
       <c r="K4" t="n">
-        <v>64.8232733414214</v>
+        <v>64.82327334142144</v>
       </c>
       <c r="L4" t="n">
-        <v>82.95147200513348</v>
+        <v>82.95147200513354</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481449</v>
+        <v>87.46069657481455</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453423</v>
+        <v>85.38107669453427</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511898</v>
+        <v>78.86324365511902</v>
       </c>
       <c r="P4" t="n">
-        <v>67.48112899329188</v>
+        <v>67.4811289932919</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.72043589576155</v>
+        <v>46.72043589576158</v>
       </c>
       <c r="R4" t="n">
-        <v>25.08731689723554</v>
+        <v>25.08731689723556</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213208</v>
+        <v>9.723491001213214</v>
       </c>
       <c r="T4" t="n">
-        <v>2.383954496906734</v>
+        <v>2.383954496906735</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0304334616626392</v>
+        <v>0.03043346166263921</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>338.1309585028985</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,28 +32075,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.1088399635148</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3057151140782</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986299</v>
+        <v>93.62064231986305</v>
       </c>
       <c r="K2" t="n">
-        <v>262.2775229245796</v>
+        <v>262.2775229245797</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380463</v>
+        <v>378.1831336380464</v>
       </c>
       <c r="M2" t="n">
-        <v>437.5758926175619</v>
+        <v>437.575892617562</v>
       </c>
       <c r="N2" t="n">
-        <v>429.8765325308041</v>
+        <v>429.8765325308042</v>
       </c>
       <c r="O2" t="n">
-        <v>360.2761411887107</v>
+        <v>360.2761411887108</v>
       </c>
       <c r="P2" t="n">
-        <v>269.4324189916168</v>
+        <v>269.4324189916169</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3307483368125</v>
+        <v>124.3307483368126</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.13013675262506</v>
+        <v>62.13013675262509</v>
       </c>
       <c r="K3" t="n">
         <v>234.0901411829312</v>
@@ -34784,19 +34784,19 @@
         <v>376.7877260521166</v>
       </c>
       <c r="M3" t="n">
-        <v>285.2441855190312</v>
+        <v>492.1977686570548</v>
       </c>
       <c r="N3" t="n">
-        <v>521.0904491015775</v>
+        <v>521.0904491015776</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574492</v>
+        <v>357.7039601327702</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5728506689198</v>
+        <v>311.57285066892</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.048129313344</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55378151553855</v>
+        <v>42.55378151553859</v>
       </c>
       <c r="L4" t="n">
-        <v>110.5414972654496</v>
+        <v>110.5414972654497</v>
       </c>
       <c r="M4" t="n">
         <v>127.0445735366551</v>
       </c>
       <c r="N4" t="n">
-        <v>129.5132490737628</v>
+        <v>129.5132490737629</v>
       </c>
       <c r="O4" t="n">
         <v>103.4483715691587</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818536</v>
+        <v>64.75968825818539</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>367.3438880645069</v>
       </c>
       <c r="N5" t="n">
-        <v>210.4799487146185</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35018,22 +35018,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>321.2265015231405</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1865357746713</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>410.9230160036622</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>206.7892464195652</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,28 +35723,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35890,10 +35890,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7094706696337</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>602.3814548662783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
